--- a/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.32</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>122.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2098</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.96</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6560</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +532,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,13 +1061,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,26 +1128,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111.66</t>
+          <t>122.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0309</t>
+          <t>3.2098</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012098</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5582</t>
+          <t>1.6560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -996,234 +1194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2083</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015309</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.32</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -532,6 +549,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1061,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002057-中钢天源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.46</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.96</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.32</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -549,6 +566,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1060,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1344,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
